--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,44 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +712,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +747,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,26 +836,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>19200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,26 +988,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>28000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +1019,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,17 +1034,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-28000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,17 +1084,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3">
         <v>5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1104,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1045,17 +1119,17 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-21700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,26 +1174,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-22300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,23 +1209,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1244,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,26 +1279,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,26 +1314,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1349,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,17 +1504,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,26 +1524,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1559,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1594,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,31 +1629,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1669,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1703,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>136900</v>
+      </c>
+      <c r="F41" s="3">
         <v>147700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,20 +1769,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1804,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,20 +1839,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,20 +1874,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>345700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>140400</v>
+      </c>
+      <c r="F46" s="3">
         <v>149300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,20 +1909,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F47" s="3">
         <v>3100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,20 +1944,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,19 +2084,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2154,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>350900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>145200</v>
+      </c>
+      <c r="F54" s="3">
         <v>154000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,20 +2223,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2254,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,20 +2289,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,20 +2324,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F60" s="3">
         <v>10000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2359,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,20 +2394,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2534,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F66" s="3">
         <v>14500</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,20 +2654,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F70" s="3">
         <v>178000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2724,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2864,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>335600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-38500</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2934,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,26 +2974,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +3009,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2641,16 +3039,16 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,26 +3234,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3288,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2857,17 +3299,17 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3319,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,26 +3389,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3424,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3579,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>127700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>22500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,25 +3614,31 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>-500</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3151,26 +3649,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>203100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F102" s="3">
         <v>127900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,29 +850,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E12" s="3">
         <v>8700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,29 +1015,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E17" s="3">
         <v>13500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,20 +1063,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,20 +1117,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,20 +1155,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,29 +1219,32 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1224,17 +1269,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,29 +1333,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,29 +1371,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,20 +1573,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,29 +1599,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,29 +1675,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,34 +1713,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1790,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>336300</v>
+      </c>
+      <c r="E41" s="3">
         <v>340000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>147700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,23 +1864,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,23 +1940,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,23 +1978,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>339500</v>
+      </c>
+      <c r="E46" s="3">
         <v>345700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>140400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>149300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,23 +2016,26 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,23 +2054,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300</v>
+        <v>5400</v>
       </c>
       <c r="E48" s="3">
         <v>1300</v>
       </c>
       <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2092,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2206,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2104,8 +2223,8 @@
       <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2282,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E54" s="3">
         <v>350900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>145200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>154000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,23 +2354,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,23 +2428,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,23 +2466,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,23 +2542,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2694,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E66" s="3">
         <v>15300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,14 +2836,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>181000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>178000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2900,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3052,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>323200</v>
+      </c>
+      <c r="E76" s="3">
         <v>335600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-47900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-38500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,34 +3128,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,29 +3171,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3045,14 +3243,14 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,29 +3453,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3305,14 +3525,14 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3407,17 +3636,17 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,28 +3827,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>212900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>127700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3620,29 +3865,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,29 +3903,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>203100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>127900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,32 +864,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E12" s="3">
         <v>9200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E17" s="3">
         <v>14900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,23 +1093,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,23 +1151,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,23 +1192,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,29 +1303,32 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-13500</v>
       </c>
       <c r="E26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-13500</v>
       </c>
       <c r="E27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,23 +1643,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-13500</v>
       </c>
       <c r="E33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-13500</v>
       </c>
       <c r="E35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>321400</v>
+      </c>
+      <c r="E41" s="3">
         <v>336300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>340000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>147700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,26 +1957,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,26 +2039,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2080,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>324900</v>
+      </c>
+      <c r="E46" s="3">
         <v>339500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>345700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>140400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>149300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,26 +2121,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,26 +2162,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
       </c>
       <c r="G48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,8 +2346,8 @@
       <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>332900</v>
+      </c>
+      <c r="E54" s="3">
         <v>344600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>350900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>145200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>154000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2485,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,26 +2565,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2606,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E60" s="3">
         <v>15000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,26 +2688,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E66" s="3">
         <v>21400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,14 +3007,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>181000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>178000</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3074,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>312600</v>
+      </c>
+      <c r="E76" s="3">
         <v>323200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>335600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-47900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-38500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-13500</v>
       </c>
       <c r="E81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3246,14 +3445,14 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3528,14 +3749,14 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,17 +3869,17 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,31 +4073,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>212900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>127700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,32 +4114,35 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>203100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>127900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
         <v>11600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E17" s="3">
         <v>18700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,26 +1123,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,26 +1185,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,26 +1229,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,35 +1305,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,32 +1349,35 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,26 +1713,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>302900</v>
+      </c>
+      <c r="E41" s="3">
         <v>321400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>336300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>340000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>147700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>309800</v>
+      </c>
+      <c r="E46" s="3">
         <v>324900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>339500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>345700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>140400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>149300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,29 +2226,32 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E47" s="3">
         <v>3200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1300</v>
       </c>
       <c r="G48" s="3">
         <v>1300</v>
       </c>
       <c r="H48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2314,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,13 +2446,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2349,8 +2469,8 @@
       <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>318700</v>
+      </c>
+      <c r="E54" s="3">
         <v>332900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>344600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>350900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>145200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>154000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E60" s="3">
         <v>11800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E62" s="3">
         <v>8500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E66" s="3">
         <v>20300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,14 +3178,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>181000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>178000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-113900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-87400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-59000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>289500</v>
+      </c>
+      <c r="E76" s="3">
         <v>312600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>323200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>335600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-47900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-38500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,13 +3625,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3448,14 +3647,14 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,13 +3951,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3752,14 +3973,14 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,13 +4081,16 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -3872,17 +4102,17 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,34 +4319,37 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>212900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>127700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,35 +4363,38 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>203100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>127900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,31 +730,34 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -773,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +892,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E12" s="3">
         <v>14200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,38 +1096,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E17" s="3">
         <v>29300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,38 +1141,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-28000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,38 +1209,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,38 +1254,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-21700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,38 +1348,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,35 +1395,38 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>2800</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,38 +1489,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,38 +1536,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,38 +1771,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,38 +1818,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,38 +1912,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,43 +1959,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>899800</v>
+      </c>
+      <c r="E41" s="3">
         <v>302900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>321400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>336300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>340000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>136900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>147700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,32 +2143,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,32 +2237,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>914100</v>
+      </c>
+      <c r="E46" s="3">
         <v>309800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>324900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>339500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>345700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>140400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>149300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,32 +2331,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,32 +2378,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1300</v>
       </c>
       <c r="H48" s="3">
         <v>1300</v>
       </c>
       <c r="I48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,16 +2566,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2472,8 +2592,8 @@
       <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>922400</v>
+      </c>
+      <c r="E54" s="3">
         <v>318700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>332900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>344600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>350900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>145200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>154000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>11700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,32 +2839,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>537500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>542200</v>
+      </c>
+      <c r="E60" s="3">
         <v>20800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,32 +2980,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E62" s="3">
         <v>8400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E66" s="3">
         <v>29200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,14 +3349,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>181000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>178000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-113900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-87400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-73900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-59000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E76" s="3">
         <v>289500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>312600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>323200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>335600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-47900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-38500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,43 +3704,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,38 +3756,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3635,7 +3834,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3650,14 +3849,14 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,38 +4104,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,17 +4172,18 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -3976,14 +4197,14 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,8 +4311,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4093,7 +4323,7 @@
         <v>-500</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -4105,17 +4335,17 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,37 +4565,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>212900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>127700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4366,38 +4612,41 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4410,38 +4659,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>596800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>203100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>127900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,20 +734,26 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>152500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>240500</v>
+      </c>
+      <c r="F8" s="3">
         <v>104300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,11 +766,11 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -780,8 +787,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +840,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +893,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,44 +918,46 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F12" s="3">
         <v>16100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>11600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>9200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>8700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1020,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1073,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1126,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1148,46 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F17" s="3">
         <v>24900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>29300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>18700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>28000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,20 +1197,26 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>213500</v>
+      </c>
+      <c r="F18" s="3">
         <v>79400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,18 +1229,18 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-28000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1250,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,20 +1275,22 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,18 +1303,18 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,20 +1324,26 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>224200</v>
+      </c>
+      <c r="F21" s="3">
         <v>72600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1283,18 +1356,18 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-21700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1377,14 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,44 +1430,50 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F23" s="3">
         <v>72400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-26500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-22300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,41 +1483,47 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1445,8 +1536,14 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1589,50 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>184900</v>
+      </c>
+      <c r="F26" s="3">
         <v>69600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-26500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-22500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1642,50 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>184900</v>
+      </c>
+      <c r="F27" s="3">
         <v>69600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-26500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1695,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1801,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,20 +1907,26 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,18 +1939,18 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1960,50 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>184900</v>
+      </c>
+      <c r="F33" s="3">
         <v>69600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-26500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +2013,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +2066,50 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>184900</v>
+      </c>
+      <c r="F35" s="3">
         <v>69600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-26500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2119,55 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2177,14 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2223,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>848500</v>
+      </c>
+      <c r="F41" s="3">
         <v>899800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>302900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>321400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>336300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>340000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>136900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>147700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2272,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,38 +2325,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2500</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2378,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2431,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2484,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>840700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>874700</v>
+      </c>
+      <c r="F46" s="3">
         <v>914100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>309800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>324900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>339500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>345700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>140400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>149300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,38 +2537,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="3">
         <v>2900</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>3200</v>
       </c>
       <c r="G47" s="3">
         <v>3300</v>
       </c>
       <c r="H47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,38 +2590,44 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2643,14 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2696,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,13 +2802,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2584,7 +2823,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2595,11 +2834,11 @@
       <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>400</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2616,8 +2855,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2908,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>850300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>884700</v>
+      </c>
+      <c r="F54" s="3">
         <v>922400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>318700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>332900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>344600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>350900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>145200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>154000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +3007,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>11700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +3056,14 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2842,38 +3109,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>299000</v>
+      </c>
+      <c r="F59" s="3">
         <v>537500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3162,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>304100</v>
+      </c>
+      <c r="F60" s="3">
         <v>542200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>20800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3215,14 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,38 +3268,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F62" s="3">
         <v>8100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>8500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>6400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3321,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3480,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>331900</v>
+      </c>
+      <c r="F66" s="3">
         <v>550300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>20300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,17 +3687,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>181000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>178000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3766,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>140600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-44200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-113900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-87400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-73900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-59000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-48300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-41100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3978,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>626400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>552800</v>
+      </c>
+      <c r="F76" s="3">
         <v>372000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>289500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>312600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>323200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>335600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-47900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-38500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +4084,55 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +4142,50 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>184900</v>
+      </c>
+      <c r="F81" s="3">
         <v>69600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-26500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4195,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4220,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3837,10 +4234,10 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3852,16 +4249,16 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -3872,8 +4269,14 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4534,50 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="F89" s="3">
         <v>605000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-18300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-23100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4587,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,23 +4612,25 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4200,17 +4641,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4661,14 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,22 +4767,28 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -4338,20 +4797,20 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4820,14 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4845,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,43 +5053,49 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>212900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>127700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>22500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4615,43 +5106,49 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-500</v>
       </c>
       <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-400</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4662,44 +5159,50 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="F102" s="3">
         <v>596800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>203100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>127900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +5210,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,23 +741,26 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E8" s="3">
         <v>152500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>240500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>104300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,8 +776,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -793,8 +797,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +933,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E12" s="3">
         <v>21100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1176,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E17" s="3">
         <v>31700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,23 +1230,26 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>120800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>213500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>79400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,15 +1265,15 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-28000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,23 +1310,24 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1309,15 +1343,15 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,23 +1364,26 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E21" s="3">
         <v>119700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>224200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>72600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,15 +1399,15 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-21700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,47 +1476,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E23" s="3">
         <v>119500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>224000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>72400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,44 +1532,47 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>2800</v>
       </c>
       <c r="E24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F24" s="3">
         <v>39200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1644,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>5600</v>
       </c>
       <c r="E26" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F26" s="3">
         <v>184900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>69600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1700,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>5600</v>
       </c>
       <c r="E27" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F27" s="3">
         <v>184900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,23 +1980,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,15 +2015,15 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2036,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>5600</v>
       </c>
       <c r="E33" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F33" s="3">
         <v>184900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2148,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>5600</v>
       </c>
       <c r="E35" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F35" s="3">
         <v>184900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2204,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2311,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>791900</v>
+      </c>
+      <c r="E41" s="3">
         <v>824000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>848500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>899800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>302900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>321400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>336300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>340000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>147700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,41 +2421,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,41 +2533,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>12100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2589,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>804700</v>
+      </c>
+      <c r="E46" s="3">
         <v>840700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>874700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>914100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>309800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>324900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>339500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>345700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>140400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>149300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,41 +2645,44 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,41 +2701,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E48" s="3">
         <v>7500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1300</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
       </c>
       <c r="L48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,13 +2940,13 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -2840,8 +2960,8 @@
       <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>400</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3037,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>814800</v>
+      </c>
+      <c r="E54" s="3">
         <v>850300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>884700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>922400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>318700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>332900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>344600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>350900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>145200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>154000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3139,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,41 +3249,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E59" s="3">
         <v>163700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>299000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>537500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,41 +3305,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E60" s="3">
         <v>174300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>304100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>542200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,41 +3417,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E62" s="3">
         <v>49700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3641,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>177500</v>
+      </c>
+      <c r="E66" s="3">
         <v>223900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>331900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>550300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3693,14 +3861,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>181000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>178000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3943,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E72" s="3">
         <v>210200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>140600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-113900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-59000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4167,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>637300</v>
+      </c>
+      <c r="E76" s="3">
         <v>626400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>552800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>372000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>289500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>312600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>323200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>335600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-47900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-38500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4279,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4340,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>5600</v>
       </c>
       <c r="E81" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F81" s="3">
         <v>184900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,7 +4439,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4255,14 +4454,14 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4754,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-58800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>605000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,26 +4834,27 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4647,14 +4868,14 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,25 +5000,28 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-500</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -4803,17 +5033,17 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,8 +5302,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5068,37 +5314,37 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>212900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>127700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5112,47 +5358,50 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5165,47 +5414,50 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-51100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>596800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>203100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>127900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,26 +745,29 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E8" s="3">
         <v>41700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>152500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>240500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>104300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +783,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -800,8 +804,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,50 +947,51 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E12" s="3">
         <v>26900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,50 +1203,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E17" s="3">
         <v>38400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,26 +1260,29 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>120800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>213500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1268,15 +1298,15 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-28000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,26 +1344,27 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E20" s="3">
         <v>5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,15 +1380,15 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,26 +1401,29 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>8600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>119700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>224200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>72600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1402,15 +1439,15 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-21700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,50 +1519,53 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>224000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>72400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,47 +1578,50 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,50 +1696,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>69600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>184900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>69600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,50 +1755,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>184900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>69600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,26 +2050,29 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,15 +2088,15 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,50 +2109,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>184900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>69600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,50 +2227,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>184900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>69600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,55 +2286,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,44 +2398,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>752200</v>
+      </c>
+      <c r="E41" s="3">
         <v>791900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>824000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>848500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>899800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>302900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>321400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>336300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>340000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>147700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,44 +2514,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,44 +2632,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,44 +2691,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>768500</v>
+      </c>
+      <c r="E46" s="3">
         <v>804700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>840700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>874700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>914100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>309800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>324900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>339500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>345700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>140400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>149300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,44 +2750,47 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,44 +2809,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
         <v>7100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1300</v>
       </c>
       <c r="L48" s="3">
         <v>1300</v>
       </c>
       <c r="M48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +2868,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,13 +3045,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
@@ -2943,13 +3063,13 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -2963,8 +3083,8 @@
       <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>400</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,44 +3163,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>777900</v>
+      </c>
+      <c r="E54" s="3">
         <v>814800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>850300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>884700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>922400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>318700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>332900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>344600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>350900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>145200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,44 +3270,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
         <v>10900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3252,44 +3386,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E59" s="3">
         <v>114500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>163700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>299000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>537500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,44 +3445,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E60" s="3">
         <v>125400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>174300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>304100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>542200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,8 +3504,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,44 +3563,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E62" s="3">
         <v>52100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>49700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,44 +3799,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E66" s="3">
         <v>177500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>331900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>550300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3864,14 +4032,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>181000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>178000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,44 +4117,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>216800</v>
+      </c>
+      <c r="E72" s="3">
         <v>215800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>210200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>140600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-113900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-87400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,44 +4353,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>634200</v>
+      </c>
+      <c r="E76" s="3">
         <v>637300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>626400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>552800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>372000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>289500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>312600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>323200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>335600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-47900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-38500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,55 +4471,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,50 +4535,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>184900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>69600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4442,7 +4641,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4457,14 +4656,14 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,50 +4971,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-58800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>605000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,8 +5055,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4844,20 +5065,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4871,14 +5092,14 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,28 +5230,31 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-500</v>
       </c>
       <c r="H94" s="3">
         <v>-500</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -5036,17 +5266,17 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,49 +5548,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>212900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>127700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -5361,50 +5607,53 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5417,50 +5666,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-51100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>596800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>203100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>127900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,32 +749,38 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F8" s="3">
         <v>19500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>41700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>152500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>240500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>104300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,11 +793,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -807,8 +814,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +879,14 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,8 +944,14 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,56 +973,58 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F12" s="3">
         <v>23900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>26900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>21100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>17400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>16100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>14200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>19200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1034,14 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1099,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1164,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1229,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1255,58 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F17" s="3">
         <v>34700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>38400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>31700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>27000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>24900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>29300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>28000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,32 +1316,38 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>120800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>213500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>79400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,18 +1360,18 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-28000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1381,14 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,32 +1410,34 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F20" s="3">
         <v>13200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>10500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,18 +1450,18 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,32 +1471,38 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>119700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>224200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>72600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,18 +1515,18 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-21700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1536,14 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,56 +1601,62 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>119500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>224000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>72400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-26500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-22300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,53 +1666,59 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>39200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1731,14 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1796,62 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>69600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>184900</v>
       </c>
       <c r="H26" s="3">
         <v>69600</v>
       </c>
       <c r="I26" s="3">
+        <v>184900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-26500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-22500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1861,62 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>69600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>184900</v>
       </c>
       <c r="H27" s="3">
         <v>69600</v>
       </c>
       <c r="I27" s="3">
+        <v>184900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-26500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1926,14 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1991,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +2056,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2121,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,32 +2186,38 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-10500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,18 +2230,18 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,56 +2251,62 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>69600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>184900</v>
       </c>
       <c r="H33" s="3">
         <v>69600</v>
       </c>
       <c r="I33" s="3">
+        <v>184900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-26500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2316,14 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2381,62 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>69600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>184900</v>
       </c>
       <c r="H35" s="3">
         <v>69600</v>
       </c>
       <c r="I35" s="3">
+        <v>184900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-26500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2446,67 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2516,14 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2545,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2570,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>284800</v>
+      </c>
+      <c r="F41" s="3">
         <v>752200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>791900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>824000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>848500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>899800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>302900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>321400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>336300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>340000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>136900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>147700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,31 +2631,37 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>376800</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>328400</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2517,50 +2696,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="F43" s="3">
         <v>4600</v>
       </c>
       <c r="G43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I43" s="3">
         <v>12100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2500</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2761,14 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,50 +2826,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F45" s="3">
         <v>11700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2891,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>615400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>628300</v>
+      </c>
+      <c r="F46" s="3">
         <v>768500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>804700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>840700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>874700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>914100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>309800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>324900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>339500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>345700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>140400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>149300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,50 +2956,56 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>119400</v>
+      </c>
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3200</v>
       </c>
       <c r="K47" s="3">
         <v>3300</v>
       </c>
       <c r="L47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,50 +3021,56 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F48" s="3">
         <v>6600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +3086,14 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2930,8 +3151,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3216,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,25 +3281,31 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -3075,7 +3314,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3086,11 +3325,11 @@
       <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
+        <v>400</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3107,8 +3346,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3411,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>728300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>755000</v>
+      </c>
+      <c r="F54" s="3">
         <v>777900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>814800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>850300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>884700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>922400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>318700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>332900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>344600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>350900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>145200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>154000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3476,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3505,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3530,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F57" s="3">
         <v>9600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3591,14 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,50 +3656,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F59" s="3">
         <v>84200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>114500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>163700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>299000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>537500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3721,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F60" s="3">
         <v>93800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>125400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>174300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>304100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>542200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>20800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3786,14 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,50 +3851,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="F62" s="3">
         <v>49800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>52100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>49700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>27800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3916,14 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3981,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +4046,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +4111,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>91700</v>
+      </c>
+      <c r="F66" s="3">
         <v>143700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>177500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>223900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>331900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>550300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>29200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4176,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4205,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4266,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4331,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4035,17 +4370,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>181000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>178000</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4396,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4461,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>221700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>237300</v>
+      </c>
+      <c r="F72" s="3">
         <v>216800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>215800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>210200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>140600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-44200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-113900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-87400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-73900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-59000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-48300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-41100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4526,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4591,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4656,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4721,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>652300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>663300</v>
+      </c>
+      <c r="F76" s="3">
         <v>634200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>637300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>626400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>552800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>372000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>289500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>312600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>323200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>335600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-47900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-38500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4786,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4851,67 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4921,62 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>69600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>184900</v>
       </c>
       <c r="H81" s="3">
         <v>69600</v>
       </c>
       <c r="I81" s="3">
+        <v>184900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-26500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4986,14 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +5015,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4644,10 +5041,10 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4659,16 +5056,16 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4679,8 +5076,14 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +5141,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5206,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5271,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5336,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5401,62 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-29700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-30300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-24000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-58800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>605000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-18300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-14800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-23100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5466,14 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,35 +5495,37 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5095,17 +5536,17 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5556,14 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5621,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,34 +5686,40 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-445100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -5269,20 +5728,20 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5751,14 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5780,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5841,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5906,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5971,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,55 +6036,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>212900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>127700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>22500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5610,55 +6101,61 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-9900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-8100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-500</v>
       </c>
       <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-400</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5669,56 +6166,62 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-467400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-32100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-24600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-51100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>596800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-18500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-14900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>203100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-10900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>127900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +6229,12 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,35 +756,38 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>12600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>53900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>152500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>240500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>104300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,8 +803,8 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -820,8 +824,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +892,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,59 +988,60 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E12" s="3">
         <v>25600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1190,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,59 +1283,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E17" s="3">
         <v>37500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,35 +1349,38 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>120800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>213500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>79400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1366,15 +1396,15 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-28000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1417,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,35 +1445,36 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>10600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,15 +1490,15 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1477,35 +1511,38 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>119700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>224200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>72600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,15 +1558,15 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-21700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1579,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,59 +1647,62 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>119500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>224000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>72400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1715,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1681,47 +1727,47 @@
         <v>1200</v>
       </c>
       <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1783,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,59 +1851,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>69600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>184900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>69600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-22500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,59 +1919,62 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>69600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>184900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>69600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1987,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,35 +2259,38 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,15 +2306,15 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,59 +2327,62 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>69600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>184900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2395,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,59 +2463,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>69600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>184900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,64 +2531,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2604,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,53 +2658,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>216200</v>
+      </c>
+      <c r="E41" s="3">
         <v>225400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>284800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>752200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>791900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>824000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>848500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>899800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>302900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>321400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>336300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>340000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>136900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>147700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,20 +2724,23 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E42" s="3">
         <v>376800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>328400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2753,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2702,53 +2792,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2860,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,53 +2928,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
         <v>12600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,53 +2996,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>614500</v>
+      </c>
+      <c r="E46" s="3">
         <v>615400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>628300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>768500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>804700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>840700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>874700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>914100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>309800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>324900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>339500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>345700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>140400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>149300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,53 +3064,56 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E47" s="3">
         <v>105700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>119400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,53 +3132,56 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1300</v>
       </c>
       <c r="O48" s="3">
         <v>1300</v>
       </c>
       <c r="P48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3200,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3157,8 +3268,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,22 +3404,25 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="3">
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -3311,13 +3431,13 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -3331,8 +3451,8 @@
       <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>400</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3352,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,53 +3540,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>703700</v>
+      </c>
+      <c r="E54" s="3">
         <v>728300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>755000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>777900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>814800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>850300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>884700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>922400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>318700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>332900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>344600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>350900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>145200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,53 +3662,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3728,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3662,53 +3796,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E59" s="3">
         <v>20700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>84200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>163700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>299000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>537500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,53 +3864,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>125400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>174300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>304100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>542200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3932,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,53 +4000,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49700</v>
+        <v>50200</v>
       </c>
       <c r="E62" s="3">
         <v>49700</v>
       </c>
       <c r="F62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="G62" s="3">
         <v>49800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>49700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,53 +4272,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E66" s="3">
         <v>76100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>177500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>223900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>331900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>550300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4376,14 +4544,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>181000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>178000</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,53 +4638,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>187400</v>
+      </c>
+      <c r="E72" s="3">
         <v>221700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>237300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>216800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>215800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>210200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>140600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-113900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-87400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-73900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-59000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,53 +4910,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E76" s="3">
         <v>652300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>663300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>634200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>637300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>626400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>552800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>372000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>289500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>312600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>323200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>335600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-47900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,64 +5046,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,59 +5119,62 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>69600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>184900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5187,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,8 +5215,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5047,7 +5246,7 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5062,14 +5261,14 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5082,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,59 +5621,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-29700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-58800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>605000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,13 +5717,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -5512,23 +5733,23 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5542,14 +5763,14 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5562,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,37 +5919,40 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-445100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -5734,17 +5964,17 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5757,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,58 +6285,61 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>212900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>127700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>22500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -6107,59 +6353,62 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6172,59 +6421,62 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-467400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-51100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>596800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>203100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>127900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5800</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
   <si>
     <t>ITOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,89 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -759,8 +760,11 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,29 +772,29 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>12600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>152500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>240500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>104300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,8 +810,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -827,8 +831,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +902,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +973,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,62 +1002,63 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E12" s="3">
         <v>29200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,8 +1142,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,62 +1310,63 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E17" s="3">
         <v>42600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1379,11 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1361,29 +1391,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-24900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>120800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>213500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>79400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1399,15 +1429,15 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-28000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1450,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1455,29 +1489,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F20" s="3">
         <v>10600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1493,15 +1527,15 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1514,8 +1548,11 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,29 +1560,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>119700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>224200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>72600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,15 +1598,15 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-21700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,8 +1619,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,62 +1690,65 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>119500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>224000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,59 +1761,62 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="E24" s="3">
         <v>1200</v>
       </c>
       <c r="F24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>50000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1786,8 +1832,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,62 +1903,65 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>69600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>184900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-22500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,62 +1974,65 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>69600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>184900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-26500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2045,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2271,29 +2341,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,15 +2379,15 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,62 +2400,65 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>69600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>184900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-26500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2471,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,62 +2542,65 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>69600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>184900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-26500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2534,67 +2613,70 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2607,8 +2689,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,56 +2745,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E41" s="3">
         <v>216200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>225400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>284800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>752200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>791900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>824000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>848500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>899800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>302900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>321400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>336300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>340000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>136900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>147700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,23 +2814,26 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>394900</v>
+      </c>
+      <c r="E42" s="3">
         <v>383000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>376800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>328400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,8 +2846,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2795,56 +2885,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2956,11 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,56 +3027,59 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,56 +3098,59 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>619100</v>
+      </c>
+      <c r="E46" s="3">
         <v>614500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>615400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>628300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>768500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>804700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>840700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>874700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>914100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>309800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>324900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>339500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>345700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>140400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>149300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,56 +3169,59 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E47" s="3">
         <v>80100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>105700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>119400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3135,56 +3240,59 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E48" s="3">
         <v>8000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1300</v>
       </c>
       <c r="P48" s="3">
         <v>1300</v>
       </c>
       <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,8 +3311,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3271,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,8 +3524,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3416,16 +3536,16 @@
         <v>1100</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -3434,13 +3554,13 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
@@ -3454,8 +3574,8 @@
       <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>400</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3475,8 +3595,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,56 +3666,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>677600</v>
+      </c>
+      <c r="E54" s="3">
         <v>703700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>728300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>755000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>777900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>814800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>850300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>884700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>922400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>318700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>332900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>344600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>350900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>145200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>154000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,8 +3737,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,56 +3793,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,8 +3862,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3799,8 +3933,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3808,47 +3945,47 @@
         <v>24800</v>
       </c>
       <c r="E59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F59" s="3">
         <v>20700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>114500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>163700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>299000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>537500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,56 +4004,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E60" s="3">
         <v>30000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>125400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>174300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>304100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>542200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4075,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4003,56 +4146,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E62" s="3">
         <v>50200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>49700</v>
       </c>
       <c r="F62" s="3">
         <v>49700</v>
       </c>
       <c r="G62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="H62" s="3">
         <v>49800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>49700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,56 +4430,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E66" s="3">
         <v>80200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>76100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>91700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>143700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>177500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>223900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>331900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>550300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4343,8 +4501,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4547,14 +4715,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>181000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>178000</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,56 +4812,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E72" s="3">
         <v>187400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>221700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>237300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>216800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>215800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>210200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>140600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-113900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-87400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +4883,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,56 +5096,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>598300</v>
+      </c>
+      <c r="E76" s="3">
         <v>623500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>652300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>663300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>634200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>637300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>626400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>552800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>372000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>289500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>312600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>323200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>335600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-38500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4981,8 +5167,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,67 +5238,70 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5122,62 +5314,65 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>69600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>184900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-26500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5190,8 +5385,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5249,7 +5448,7 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -5264,14 +5463,14 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5284,8 +5483,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,62 +5838,65 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-30300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-58800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>605000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5692,8 +5909,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,16 +5938,17 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -5736,23 +5957,23 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5766,14 +5987,14 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5786,8 +6007,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,40 +6149,43 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E94" s="3">
         <v>20100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-445100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-500</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -5967,17 +6197,17 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5990,8 +6220,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,61 +6531,64 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>212900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>127700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -6356,62 +6602,65 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6424,62 +6673,65 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-467400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>596800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>203100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>127900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5800</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6490,6 +6742,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
